--- a/Ciclo II/Planeación y requerimientos/Plantillas/PL Bitacora.xlsx
+++ b/Ciclo II/Planeación y requerimientos/Plantillas/PL Bitacora.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/METFOR/Definicion y administracion de requerimientos de software/Plantillas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/METFOR/Ciclo II/Planeación y requerimientos/Plantillas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A70A77-CE1F-DF4B-8CE1-186DB7B059A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5907A47-6A16-7948-9249-D43A649A55BD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24000" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>METFOR</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">CICLO </t>
+  </si>
+  <si>
+    <t>DURACIÓN      TAREA</t>
   </si>
 </sst>
 </file>
@@ -863,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J59"/>
+  <dimension ref="B2:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -874,28 +877,28 @@
     <col min="1" max="1" width="11.5" style="2"/>
     <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="11.5" style="2"/>
-    <col min="5" max="7" width="18.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="2"/>
+    <col min="5" max="8" width="18.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
@@ -904,15 +907,16 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:11" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
@@ -922,8 +926,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="2:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -931,16 +936,18 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
@@ -954,22 +961,25 @@
         <v>21</v>
       </c>
       <c r="F14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="H14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="I14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="J14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="K14" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -978,9 +988,10 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="27"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -989,9 +1000,10 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="16"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1000,9 +1012,10 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="16"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1011,9 +1024,10 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="16"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1022,9 +1036,10 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="16"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1033,9 +1048,10 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="16"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1044,9 +1060,10 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="16"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1055,9 +1072,10 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="16"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1066,9 +1084,10 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="16"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1077,9 +1096,10 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="16"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1088,9 +1108,10 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="16"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1099,9 +1120,10 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="16"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1110,9 +1132,10 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="16"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1121,9 +1144,10 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="16"/>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1132,9 +1156,10 @@
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="16"/>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1143,9 +1168,10 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="16"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1154,9 +1180,10 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="16"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="12"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1165,9 +1192,10 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="16"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1176,9 +1204,10 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="16"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="12"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1187,9 +1216,10 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="16"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="12"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1198,9 +1228,10 @@
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="16"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1209,9 +1240,10 @@
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="16"/>
+      <c r="K36" s="8"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="12"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1220,9 +1252,10 @@
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="16"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="12"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1231,9 +1264,10 @@
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="16"/>
+      <c r="K38" s="8"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="12"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1242,9 +1276,10 @@
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="16"/>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="12"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1253,9 +1288,10 @@
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="16"/>
+      <c r="K40" s="8"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1264,9 +1300,10 @@
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="16"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="12"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1275,9 +1312,10 @@
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="16"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1286,9 +1324,10 @@
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="16"/>
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1297,9 +1336,10 @@
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="16"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1308,9 +1348,10 @@
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J45" s="16"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="12"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1319,9 +1360,10 @@
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J46" s="16"/>
+      <c r="K46" s="8"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1330,9 +1372,10 @@
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="16"/>
+      <c r="K47" s="8"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="12"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1341,9 +1384,10 @@
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J48" s="16"/>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -1352,9 +1396,10 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="16"/>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="12"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1363,9 +1408,10 @@
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="16"/>
+      <c r="K50" s="8"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1374,9 +1420,10 @@
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="16"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1385,9 +1432,10 @@
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="16"/>
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="12"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -1396,9 +1444,10 @@
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="16"/>
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="12"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -1407,9 +1456,10 @@
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="16"/>
+      <c r="K54" s="8"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="12"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -1418,9 +1468,10 @@
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="16"/>
+      <c r="K55" s="8"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="12"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -1429,9 +1480,10 @@
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J56" s="16"/>
+      <c r="K56" s="8"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="12"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -1440,9 +1492,10 @@
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J57" s="16"/>
+      <c r="K57" s="8"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="12"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -1451,9 +1504,10 @@
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="16"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -1462,19 +1516,21 @@
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
-      <c r="J59" s="10"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J14:J15"/>
+  <mergeCells count="10">
+    <mergeCell ref="K14:K15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
